--- a/classfiers/chatty/svm/chatty-svm-poly-results.xlsx
+++ b/classfiers/chatty/svm/chatty-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8275362318840579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9304347826086956</v>
+        <v>0.9847826086956523</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9705240174672489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.8833333333333332</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9456990063920004</v>
+        <v>0.9969565217391304</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/svm/chatty-svm-poly-results.xlsx
+++ b/classfiers/chatty/svm/chatty-svm-poly-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9942307692307691</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9847826086956523</v>
+        <v>0.9576923076923077</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9980676328502416</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.875</v>
+        <v>0.8488888888888889</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8833333333333332</v>
+        <v>0.6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.86</v>
+        <v>0.633015873015873</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9969565217391304</v>
+        <v>0.9899981419546636</v>
       </c>
     </row>
   </sheetData>
